--- a/заказы/статистика филиалы/2024/10,24/03,10,24 ПОКОМ КИ филиалы/дв 03,10,24 бррсч пок ки.xlsx
+++ b/заказы/статистика филиалы/2024/10,24/03,10,24 ПОКОМ КИ филиалы/дв 03,10,24 бррсч пок ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\03,10,24 ПОКОМ КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\10,24\03,10,24 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DBF088-3FE9-4E94-93A6-5F6D3BD546E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686E2A5E-CF35-49E5-83E3-B505FC431904}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="158">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -474,9 +474,6 @@
     <t>ТМА октябрь</t>
   </si>
   <si>
-    <t>ТМА октябрь / есть дубль</t>
-  </si>
-  <si>
     <t>новинка, SU002011 / ТМА октябрь</t>
   </si>
   <si>
@@ -570,6 +567,12 @@
   </si>
   <si>
     <t>нужно увеличить продажи / новинка</t>
+  </si>
+  <si>
+    <t>ТМА октябрь / 05,10,24 - недогруз 500кг</t>
+  </si>
+  <si>
+    <t>ТМА октябрь / 05,10,24 - недогруз 480кг / есть дубль</t>
   </si>
 </sst>
 </file>
@@ -1040,10 +1043,10 @@
   <dimension ref="A1:AY500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C78" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AF10" sqref="AF10"/>
+      <selection pane="bottomRight" activeCell="S91" sqref="S91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2989,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="AB20" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AC20" s="1">
         <f t="shared" si="6"/>
@@ -3817,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC28" s="20">
         <f t="shared" si="6"/>
@@ -4529,7 +4532,7 @@
         <v>0.378</v>
       </c>
       <c r="AB35" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AC35" s="14">
         <f t="shared" si="6"/>
@@ -6951,7 +6954,7 @@
         <v>19</v>
       </c>
       <c r="AB58" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AC58" s="1">
         <f t="shared" si="6"/>
@@ -8765,7 +8768,7 @@
         <v>1.8</v>
       </c>
       <c r="AB76" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AC76" s="1">
         <f t="shared" si="18"/>
@@ -9147,7 +9150,7 @@
         <v>2.5564</v>
       </c>
       <c r="AB80" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AC80" s="1">
         <f t="shared" si="18"/>
@@ -9249,7 +9252,7 @@
         <v>1.6006</v>
       </c>
       <c r="AB81" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AC81" s="1">
         <f t="shared" si="18"/>
@@ -10163,7 +10166,7 @@
         <v>237.81620000000001</v>
       </c>
       <c r="AB90" s="10" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AC90" s="1">
         <f t="shared" si="18"/>
@@ -10273,7 +10276,7 @@
         <v>279.49300000000011</v>
       </c>
       <c r="AB91" s="10" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AC91" s="1">
         <f t="shared" si="18"/>
@@ -10773,7 +10776,7 @@
         <v>3.4765999999999999</v>
       </c>
       <c r="AB96" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AC96" s="1">
         <f t="shared" si="18"/>
@@ -10875,7 +10878,7 @@
         <v>5.8</v>
       </c>
       <c r="AB97" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC97" s="1">
         <f t="shared" si="18"/>
@@ -10977,7 +10980,7 @@
         <v>6.2</v>
       </c>
       <c r="AB98" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AC98" s="1">
         <f t="shared" si="18"/>
